--- a/data/Wn.xlsx
+++ b/data/Wn.xlsx
@@ -1490,7 +1490,7 @@
     </row>
     <row r="2" spans="1:184">
       <c r="A2">
-        <v>116.03617916859616</v>
+        <v>2.2752191993842383</v>
       </c>
       <c r="B2">
         <v>0.0</v>
@@ -2047,7 +2047,7 @@
         <v>0.0</v>
       </c>
       <c r="B3">
-        <v>-1.1014645096058583e-44</v>
+        <v>-2.1597343325605066e-46</v>
       </c>
       <c r="C3">
         <v>0.0</v>
@@ -2604,7 +2604,7 @@
         <v>0.0</v>
       </c>
       <c r="C4">
-        <v>1.3848608981266606e-43</v>
+        <v>2.7154135257385504e-45</v>
       </c>
       <c r="D4">
         <v>0.0</v>
@@ -3161,7 +3161,7 @@
         <v>0.0</v>
       </c>
       <c r="D5">
-        <v>-3.967047715442574e-42</v>
+        <v>-7.778524932240341e-44</v>
       </c>
       <c r="E5">
         <v>0.0</v>
@@ -3718,7 +3718,7 @@
         <v>0.0</v>
       </c>
       <c r="E6">
-        <v>1.9873271994621533</v>
+        <v>0.038967199989453985</v>
       </c>
       <c r="F6">
         <v>0.0</v>
@@ -4275,7 +4275,7 @@
         <v>0.0</v>
       </c>
       <c r="F7">
-        <v>9.046787997551593</v>
+        <v>0.17738799995199203</v>
       </c>
       <c r="G7">
         <v>0.0</v>
@@ -4832,7 +4832,7 @@
         <v>0.0</v>
       </c>
       <c r="G8">
-        <v>9.936635997310765</v>
+        <v>0.1948359999472699</v>
       </c>
       <c r="H8">
         <v>0.0</v>
@@ -5389,7 +5389,7 @@
         <v>0.0</v>
       </c>
       <c r="H9">
-        <v>3.6780383990045817</v>
+        <v>0.07211839998048199</v>
       </c>
       <c r="I9">
         <v>0.0</v>
@@ -5946,7 +5946,7 @@
         <v>0.0</v>
       </c>
       <c r="I10">
-        <v>2.091142799434057</v>
+        <v>0.04100279998890307</v>
       </c>
       <c r="J10">
         <v>0.0</v>
@@ -6503,7 +6503,7 @@
         <v>0.0</v>
       </c>
       <c r="J11">
-        <v>5.442903598526942</v>
+        <v>0.10672359997111651</v>
       </c>
       <c r="K11">
         <v>0.0</v>
@@ -7060,7 +7060,7 @@
         <v>0.0</v>
       </c>
       <c r="K12">
-        <v>116.03617916859616</v>
+        <v>2.2752191993842383</v>
       </c>
       <c r="L12">
         <v>0.0</v>
@@ -7617,7 +7617,7 @@
         <v>0.0</v>
       </c>
       <c r="L13">
-        <v>731.158433706155</v>
+        <v>14.336439876591276</v>
       </c>
       <c r="M13">
         <v>0.0</v>
@@ -8174,7 +8174,7 @@
         <v>0.0</v>
       </c>
       <c r="M14">
-        <v>2.096099846879311e-43</v>
+        <v>4.1099996997633557e-45</v>
       </c>
       <c r="N14">
         <v>0.0</v>
@@ -8731,7 +8731,7 @@
         <v>0.0</v>
       </c>
       <c r="N15">
-        <v>2.1249175901023824e-42</v>
+        <v>4.166505078632122e-44</v>
       </c>
       <c r="O15">
         <v>0.0</v>
@@ -9288,7 +9288,7 @@
         <v>0.0</v>
       </c>
       <c r="O16">
-        <v>1.9873271994621533</v>
+        <v>0.038967199989453985</v>
       </c>
       <c r="P16">
         <v>0.0</v>
@@ -9845,7 +9845,7 @@
         <v>0.0</v>
       </c>
       <c r="P17">
-        <v>9.046787997551593</v>
+        <v>0.17738799995199203</v>
       </c>
       <c r="Q17">
         <v>0.0</v>
@@ -10402,7 +10402,7 @@
         <v>0.0</v>
       </c>
       <c r="Q18">
-        <v>9.936635997310765</v>
+        <v>0.1948359999472699</v>
       </c>
       <c r="R18">
         <v>0.0</v>
@@ -10959,7 +10959,7 @@
         <v>0.0</v>
       </c>
       <c r="R19">
-        <v>3.6780383990045817</v>
+        <v>0.07211839998048199</v>
       </c>
       <c r="S19">
         <v>0.0</v>
@@ -11516,7 +11516,7 @@
         <v>0.0</v>
       </c>
       <c r="S20">
-        <v>2.091142799434057</v>
+        <v>0.04100279998890307</v>
       </c>
       <c r="T20">
         <v>0.0</v>
@@ -12073,7 +12073,7 @@
         <v>0.0</v>
       </c>
       <c r="T21">
-        <v>5.442903598526942</v>
+        <v>0.10672359997111651</v>
       </c>
       <c r="U21">
         <v>0.0</v>
@@ -12630,7 +12630,7 @@
         <v>0.0</v>
       </c>
       <c r="U22">
-        <v>116.03617916859616</v>
+        <v>2.2752191993842383</v>
       </c>
       <c r="V22">
         <v>0.0</v>
@@ -13187,7 +13187,7 @@
         <v>0.0</v>
       </c>
       <c r="V23">
-        <v>731.158433706155</v>
+        <v>14.336439876591276</v>
       </c>
       <c r="W23">
         <v>0.0</v>
@@ -13744,7 +13744,7 @@
         <v>0.0</v>
       </c>
       <c r="W24">
-        <v>2.1435002304059215e-42</v>
+        <v>4.202941628246905e-44</v>
       </c>
       <c r="X24">
         <v>0.0</v>
@@ -14301,7 +14301,7 @@
         <v>0.0</v>
       </c>
       <c r="X25">
-        <v>3.715279214301936e-42</v>
+        <v>7.2848612045136e-44</v>
       </c>
       <c r="Y25">
         <v>0.0</v>
@@ -14858,7 +14858,7 @@
         <v>0.0</v>
       </c>
       <c r="Y26">
-        <v>1.9873271994621533</v>
+        <v>0.038967199989453985</v>
       </c>
       <c r="Z26">
         <v>0.0</v>
@@ -15415,7 +15415,7 @@
         <v>0.0</v>
       </c>
       <c r="Z27">
-        <v>9.046787997551593</v>
+        <v>0.17738799995199203</v>
       </c>
       <c r="AA27">
         <v>0.0</v>
@@ -15972,7 +15972,7 @@
         <v>0.0</v>
       </c>
       <c r="AA28">
-        <v>9.936635997310765</v>
+        <v>0.1948359999472699</v>
       </c>
       <c r="AB28">
         <v>0.0</v>
@@ -16529,7 +16529,7 @@
         <v>0.0</v>
       </c>
       <c r="AB29">
-        <v>3.6780383990045817</v>
+        <v>0.07211839998048199</v>
       </c>
       <c r="AC29">
         <v>0.0</v>
@@ -17086,7 +17086,7 @@
         <v>0.0</v>
       </c>
       <c r="AC30">
-        <v>2.091142799434057</v>
+        <v>0.04100279998890307</v>
       </c>
       <c r="AD30">
         <v>0.0</v>
@@ -17643,7 +17643,7 @@
         <v>0.0</v>
       </c>
       <c r="AD31">
-        <v>5.442903598526942</v>
+        <v>0.10672359997111651</v>
       </c>
       <c r="AE31">
         <v>0.0</v>
@@ -18200,7 +18200,7 @@
         <v>0.0</v>
       </c>
       <c r="AE32">
-        <v>116.03617916859616</v>
+        <v>2.2752191993842383</v>
       </c>
       <c r="AF32">
         <v>0.0</v>
@@ -18757,7 +18757,7 @@
         <v>0.0</v>
       </c>
       <c r="AF33">
-        <v>731.158433706155</v>
+        <v>14.336439876591276</v>
       </c>
       <c r="AG33">
         <v>0.0</v>
@@ -19314,7 +19314,7 @@
         <v>0.0</v>
       </c>
       <c r="AG34">
-        <v>1.8049905738060412e-42</v>
+        <v>3.539197203541257e-44</v>
       </c>
       <c r="AH34">
         <v>0.0</v>
@@ -19871,7 +19871,7 @@
         <v>0.0</v>
       </c>
       <c r="AH35">
-        <v>-1.2625739302612466e-42</v>
+        <v>-2.475635157374993e-44</v>
       </c>
       <c r="AI35">
         <v>0.0</v>
@@ -20428,7 +20428,7 @@
         <v>0.0</v>
       </c>
       <c r="AI36">
-        <v>1.9873271994621533</v>
+        <v>0.038967199989453985</v>
       </c>
       <c r="AJ36">
         <v>0.0</v>
@@ -20985,7 +20985,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ37">
-        <v>9.046787997551593</v>
+        <v>0.17738799995199203</v>
       </c>
       <c r="AK37">
         <v>0.0</v>
@@ -21542,7 +21542,7 @@
         <v>0.0</v>
       </c>
       <c r="AK38">
-        <v>9.936635997310765</v>
+        <v>0.1948359999472699</v>
       </c>
       <c r="AL38">
         <v>0.0</v>
@@ -22099,7 +22099,7 @@
         <v>0.0</v>
       </c>
       <c r="AL39">
-        <v>3.6780383990045817</v>
+        <v>0.07211839998048199</v>
       </c>
       <c r="AM39">
         <v>0.0</v>
@@ -22656,7 +22656,7 @@
         <v>0.0</v>
       </c>
       <c r="AM40">
-        <v>2.091142799434057</v>
+        <v>0.04100279998890307</v>
       </c>
       <c r="AN40">
         <v>0.0</v>
@@ -23213,7 +23213,7 @@
         <v>0.0</v>
       </c>
       <c r="AN41">
-        <v>5.442903598526942</v>
+        <v>0.10672359997111651</v>
       </c>
       <c r="AO41">
         <v>0.0</v>
@@ -23770,7 +23770,7 @@
         <v>0.0</v>
       </c>
       <c r="AO42">
-        <v>116.03617916859616</v>
+        <v>2.2752191993842383</v>
       </c>
       <c r="AP42">
         <v>0.0</v>
@@ -24327,7 +24327,7 @@
         <v>0.0</v>
       </c>
       <c r="AP43">
-        <v>731.158433706155</v>
+        <v>14.336439876591276</v>
       </c>
       <c r="AQ43">
         <v>0.0</v>
@@ -24884,7 +24884,7 @@
         <v>0.0</v>
       </c>
       <c r="AQ44">
-        <v>9.958453580766627e-43</v>
+        <v>1.9526379570130641e-44</v>
       </c>
       <c r="AR44">
         <v>0.0</v>
@@ -25441,7 +25441,7 @@
         <v>0.0</v>
       </c>
       <c r="AR45">
-        <v>8.054706698732656e-43</v>
+        <v>1.579354254653462e-44</v>
       </c>
       <c r="AS45">
         <v>0.0</v>
@@ -25998,7 +25998,7 @@
         <v>0.0</v>
       </c>
       <c r="AS46">
-        <v>1.9873271994621533</v>
+        <v>0.038967199989453985</v>
       </c>
       <c r="AT46">
         <v>0.0</v>
@@ -26555,7 +26555,7 @@
         <v>0.0</v>
       </c>
       <c r="AT47">
-        <v>9.046787997551593</v>
+        <v>0.17738799995199203</v>
       </c>
       <c r="AU47">
         <v>0.0</v>
@@ -27112,7 +27112,7 @@
         <v>0.0</v>
       </c>
       <c r="AU48">
-        <v>9.936635997310765</v>
+        <v>0.1948359999472699</v>
       </c>
       <c r="AV48">
         <v>0.0</v>
@@ -27669,7 +27669,7 @@
         <v>0.0</v>
       </c>
       <c r="AV49">
-        <v>3.6780383990045817</v>
+        <v>0.07211839998048199</v>
       </c>
       <c r="AW49">
         <v>0.0</v>
@@ -28226,7 +28226,7 @@
         <v>0.0</v>
       </c>
       <c r="AW50">
-        <v>2.091142799434057</v>
+        <v>0.04100279998890307</v>
       </c>
       <c r="AX50">
         <v>0.0</v>
@@ -28783,7 +28783,7 @@
         <v>0.0</v>
       </c>
       <c r="AX51">
-        <v>5.442903598526942</v>
+        <v>0.10672359997111651</v>
       </c>
       <c r="AY51">
         <v>0.0</v>
@@ -29340,7 +29340,7 @@
         <v>0.0</v>
       </c>
       <c r="AY52">
-        <v>183.11215976855217</v>
+        <v>3.590434505265729</v>
       </c>
       <c r="AZ52">
         <v>0.0</v>
@@ -29897,7 +29897,7 @@
         <v>0.0</v>
       </c>
       <c r="AZ53">
-        <v>669.1533500189715</v>
+        <v>13.120653921940619</v>
       </c>
       <c r="BA53">
         <v>0.0</v>
@@ -30454,7 +30454,7 @@
         <v>0.0</v>
       </c>
       <c r="BA54">
-        <v>56.24335805252413</v>
+        <v>1.1028109422063554</v>
       </c>
       <c r="BB54">
         <v>0.0</v>
@@ -31011,7 +31011,7 @@
         <v>0.0</v>
       </c>
       <c r="BB55">
-        <v>0.23240865975400227</v>
+        <v>0.004557032544196123</v>
       </c>
       <c r="BC55">
         <v>0.0</v>
@@ -31568,7 +31568,7 @@
         <v>0.0</v>
       </c>
       <c r="BC56">
-        <v>32.87366471317691</v>
+        <v>0.6445816610426844</v>
       </c>
       <c r="BD56">
         <v>0.0</v>
@@ -32125,7 +32125,7 @@
         <v>0.0</v>
       </c>
       <c r="BD57">
-        <v>7.214533807194456e-17</v>
+        <v>1.4146144719989128e-18</v>
       </c>
       <c r="BE57">
         <v>0.0</v>
@@ -32682,7 +32682,7 @@
         <v>0.0</v>
       </c>
       <c r="BE58">
-        <v>7.214533807194453e-17</v>
+        <v>1.4146144719989123e-18</v>
       </c>
       <c r="BF58">
         <v>0.0</v>
@@ -33239,7 +33239,7 @@
         <v>0.0</v>
       </c>
       <c r="BF59">
-        <v>4.4354439064832684e-17</v>
+        <v>8.696948836241703e-19</v>
       </c>
       <c r="BG59">
         <v>0.0</v>
@@ -33796,7 +33796,7 @@
         <v>0.0</v>
       </c>
       <c r="BG60">
-        <v>4.4354439064832684e-17</v>
+        <v>8.696948836241703e-19</v>
       </c>
       <c r="BH60">
         <v>0.0</v>
@@ -34353,7 +34353,7 @@
         <v>0.0</v>
       </c>
       <c r="BH61">
-        <v>-4.472498907603421e-16</v>
+        <v>-8.76960570118318e-18</v>
       </c>
       <c r="BI61">
         <v>0.0</v>
@@ -34910,7 +34910,7 @@
         <v>0.0</v>
       </c>
       <c r="BI62">
-        <v>183.11215976855217</v>
+        <v>3.590434505265729</v>
       </c>
       <c r="BJ62">
         <v>0.0</v>
@@ -35467,7 +35467,7 @@
         <v>0.0</v>
       </c>
       <c r="BJ63">
-        <v>669.1533500189715</v>
+        <v>13.120653921940619</v>
       </c>
       <c r="BK63">
         <v>0.0</v>
@@ -36024,7 +36024,7 @@
         <v>0.0</v>
       </c>
       <c r="BK64">
-        <v>56.24335805252413</v>
+        <v>1.1028109422063554</v>
       </c>
       <c r="BL64">
         <v>0.0</v>
@@ -36581,7 +36581,7 @@
         <v>0.0</v>
       </c>
       <c r="BL65">
-        <v>0.23240865975400227</v>
+        <v>0.004557032544196123</v>
       </c>
       <c r="BM65">
         <v>0.0</v>
@@ -37138,7 +37138,7 @@
         <v>0.0</v>
       </c>
       <c r="BM66">
-        <v>32.87366471317691</v>
+        <v>0.6445816610426844</v>
       </c>
       <c r="BN66">
         <v>0.0</v>
@@ -37695,7 +37695,7 @@
         <v>0.0</v>
       </c>
       <c r="BN67">
-        <v>183.11215976855217</v>
+        <v>3.590434505265729</v>
       </c>
       <c r="BO67">
         <v>0.0</v>
@@ -38252,7 +38252,7 @@
         <v>0.0</v>
       </c>
       <c r="BO68">
-        <v>669.1533500189715</v>
+        <v>13.120653921940619</v>
       </c>
       <c r="BP68">
         <v>0.0</v>
@@ -38809,7 +38809,7 @@
         <v>0.0</v>
       </c>
       <c r="BP69">
-        <v>56.24335805252413</v>
+        <v>1.1028109422063554</v>
       </c>
       <c r="BQ69">
         <v>0.0</v>
@@ -39366,7 +39366,7 @@
         <v>0.0</v>
       </c>
       <c r="BQ70">
-        <v>0.23240865975400227</v>
+        <v>0.004557032544196123</v>
       </c>
       <c r="BR70">
         <v>0.0</v>
@@ -39923,7 +39923,7 @@
         <v>0.0</v>
       </c>
       <c r="BR71">
-        <v>32.87366471317691</v>
+        <v>0.6445816610426844</v>
       </c>
       <c r="BS71">
         <v>0.0</v>
@@ -40480,7 +40480,7 @@
         <v>0.0</v>
       </c>
       <c r="BS72">
-        <v>183.11215976855217</v>
+        <v>3.590434505265729</v>
       </c>
       <c r="BT72">
         <v>0.0</v>
@@ -41037,7 +41037,7 @@
         <v>0.0</v>
       </c>
       <c r="BT73">
-        <v>669.1533500189715</v>
+        <v>13.120653921940619</v>
       </c>
       <c r="BU73">
         <v>0.0</v>
@@ -41594,7 +41594,7 @@
         <v>0.0</v>
       </c>
       <c r="BU74">
-        <v>56.24335805252413</v>
+        <v>1.1028109422063554</v>
       </c>
       <c r="BV74">
         <v>0.0</v>
@@ -42151,7 +42151,7 @@
         <v>0.0</v>
       </c>
       <c r="BV75">
-        <v>0.23240865975400227</v>
+        <v>0.004557032544196123</v>
       </c>
       <c r="BW75">
         <v>0.0</v>
@@ -42708,7 +42708,7 @@
         <v>0.0</v>
       </c>
       <c r="BW76">
-        <v>32.87366471317691</v>
+        <v>0.6445816610426844</v>
       </c>
       <c r="BX76">
         <v>0.0</v>
@@ -43265,7 +43265,7 @@
         <v>0.0</v>
       </c>
       <c r="BX77">
-        <v>96.51833756936495</v>
+        <v>1.8925164229287246</v>
       </c>
       <c r="BY77">
         <v>0.0</v>
@@ -43822,7 +43822,7 @@
         <v>0.0</v>
       </c>
       <c r="BY78">
-        <v>528.990421161609</v>
+        <v>10.372361199247235</v>
       </c>
       <c r="BZ78">
         <v>0.0</v>
@@ -44379,7 +44379,7 @@
         <v>0.0</v>
       </c>
       <c r="BZ79">
-        <v>369.59393130826123</v>
+        <v>7.2469398295737495</v>
       </c>
       <c r="CA79">
         <v>0.0</v>
@@ -44936,7 +44936,7 @@
         <v>0.0</v>
       </c>
       <c r="CA80">
-        <v>33.25712420076582</v>
+        <v>0.65210047452482</v>
       </c>
       <c r="CB80">
         <v>0.0</v>
@@ -45493,7 +45493,7 @@
         <v>0.0</v>
       </c>
       <c r="CB81">
-        <v>86.44277137135231</v>
+        <v>1.694956301399065</v>
       </c>
       <c r="CC81">
         <v>0.0</v>
@@ -46050,7 +46050,7 @@
         <v>0.0</v>
       </c>
       <c r="CC82">
-        <v>96.51833756936495</v>
+        <v>1.8925164229287246</v>
       </c>
       <c r="CD82">
         <v>0.0</v>
@@ -46607,7 +46607,7 @@
         <v>0.0</v>
       </c>
       <c r="CD83">
-        <v>528.990421161609</v>
+        <v>10.372361199247235</v>
       </c>
       <c r="CE83">
         <v>0.0</v>
@@ -47164,7 +47164,7 @@
         <v>0.0</v>
       </c>
       <c r="CE84">
-        <v>369.59393130826123</v>
+        <v>7.2469398295737495</v>
       </c>
       <c r="CF84">
         <v>0.0</v>
@@ -47721,7 +47721,7 @@
         <v>0.0</v>
       </c>
       <c r="CF85">
-        <v>33.25712420076582</v>
+        <v>0.65210047452482</v>
       </c>
       <c r="CG85">
         <v>0.0</v>
@@ -48278,7 +48278,7 @@
         <v>0.0</v>
       </c>
       <c r="CG86">
-        <v>86.44277137135231</v>
+        <v>1.694956301399065</v>
       </c>
       <c r="CH86">
         <v>0.0</v>
@@ -48835,7 +48835,7 @@
         <v>0.0</v>
       </c>
       <c r="CH87">
-        <v>0.30667579524444977</v>
+        <v>0.006013250887146073</v>
       </c>
       <c r="CI87">
         <v>0.0</v>
@@ -49392,7 +49392,7 @@
         <v>0.0</v>
       </c>
       <c r="CI88">
-        <v>594.5922449579235</v>
+        <v>11.658671469763206</v>
       </c>
       <c r="CJ88">
         <v>0.0</v>
@@ -49949,7 +49949,7 @@
         <v>0.0</v>
       </c>
       <c r="CJ89">
-        <v>496.41543106018764</v>
+        <v>9.733635903140934</v>
       </c>
       <c r="CK89">
         <v>0.0</v>
@@ -50506,7 +50506,7 @@
         <v>0.0</v>
       </c>
       <c r="CK90">
-        <v>129.51626454636974</v>
+        <v>2.539534598948426</v>
       </c>
       <c r="CL90">
         <v>0.0</v>
@@ -51063,7 +51063,7 @@
         <v>0.0</v>
       </c>
       <c r="CL91">
-        <v>86.3952927998689</v>
+        <v>1.6940253490170372</v>
       </c>
       <c r="CM91">
         <v>0.0</v>
@@ -51620,7 +51620,7 @@
         <v>0.0</v>
       </c>
       <c r="CM92">
-        <v>0.30667579524444977</v>
+        <v>0.006013250887146073</v>
       </c>
       <c r="CN92">
         <v>0.0</v>
@@ -52177,7 +52177,7 @@
         <v>0.0</v>
       </c>
       <c r="CN93">
-        <v>594.5922449579235</v>
+        <v>11.658671469763206</v>
       </c>
       <c r="CO93">
         <v>0.0</v>
@@ -52734,7 +52734,7 @@
         <v>0.0</v>
       </c>
       <c r="CO94">
-        <v>496.41543106018764</v>
+        <v>9.733635903140934</v>
       </c>
       <c r="CP94">
         <v>0.0</v>
@@ -53291,7 +53291,7 @@
         <v>0.0</v>
       </c>
       <c r="CP95">
-        <v>129.51626454636974</v>
+        <v>2.539534598948426</v>
       </c>
       <c r="CQ95">
         <v>0.0</v>
@@ -53848,7 +53848,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ96">
-        <v>86.3952927998689</v>
+        <v>1.6940253490170372</v>
       </c>
       <c r="CR96">
         <v>0.0</v>
@@ -54405,7 +54405,7 @@
         <v>0.0</v>
       </c>
       <c r="CR97">
-        <v>0.30667579524444977</v>
+        <v>0.006013250887146073</v>
       </c>
       <c r="CS97">
         <v>0.0</v>
@@ -54962,7 +54962,7 @@
         <v>0.0</v>
       </c>
       <c r="CS98">
-        <v>594.5922449579235</v>
+        <v>11.658671469763206</v>
       </c>
       <c r="CT98">
         <v>0.0</v>
@@ -55519,7 +55519,7 @@
         <v>0.0</v>
       </c>
       <c r="CT99">
-        <v>496.41543106018764</v>
+        <v>9.733635903140934</v>
       </c>
       <c r="CU99">
         <v>0.0</v>
@@ -56076,7 +56076,7 @@
         <v>0.0</v>
       </c>
       <c r="CU100">
-        <v>129.51626454636974</v>
+        <v>2.539534598948426</v>
       </c>
       <c r="CV100">
         <v>0.0</v>
@@ -56633,7 +56633,7 @@
         <v>0.0</v>
       </c>
       <c r="CV101">
-        <v>86.3952927998689</v>
+        <v>1.6940253490170372</v>
       </c>
       <c r="CW101">
         <v>0.0</v>
@@ -57190,7 +57190,7 @@
         <v>0.0</v>
       </c>
       <c r="CW102">
-        <v>0.30667579524444977</v>
+        <v>0.006013250887146073</v>
       </c>
       <c r="CX102">
         <v>0.0</v>
@@ -57747,7 +57747,7 @@
         <v>0.0</v>
       </c>
       <c r="CX103">
-        <v>594.5922449579235</v>
+        <v>11.658671469763206</v>
       </c>
       <c r="CY103">
         <v>0.0</v>
@@ -58304,7 +58304,7 @@
         <v>0.0</v>
       </c>
       <c r="CY104">
-        <v>496.41543106018764</v>
+        <v>9.733635903140934</v>
       </c>
       <c r="CZ104">
         <v>0.0</v>
@@ -58861,7 +58861,7 @@
         <v>0.0</v>
       </c>
       <c r="CZ105">
-        <v>129.51626454636974</v>
+        <v>2.539534598948426</v>
       </c>
       <c r="DA105">
         <v>0.0</v>
@@ -59418,7 +59418,7 @@
         <v>0.0</v>
       </c>
       <c r="DA106">
-        <v>86.3952927998689</v>
+        <v>1.6940253490170372</v>
       </c>
       <c r="DB106">
         <v>0.0</v>
@@ -59975,7 +59975,7 @@
         <v>0.0</v>
       </c>
       <c r="DB107">
-        <v>0.30667579524444977</v>
+        <v>0.006013250887146073</v>
       </c>
       <c r="DC107">
         <v>0.0</v>
@@ -60532,7 +60532,7 @@
         <v>0.0</v>
       </c>
       <c r="DC108">
-        <v>473.9322503086025</v>
+        <v>9.292789221737303</v>
       </c>
       <c r="DD108">
         <v>0.0</v>
@@ -61089,7 +61089,7 @@
         <v>0.0</v>
       </c>
       <c r="DD109">
-        <v>617.0754257095087</v>
+        <v>12.099518151166837</v>
       </c>
       <c r="DE109">
         <v>0.0</v>
@@ -61646,7 +61646,7 @@
         <v>0.0</v>
       </c>
       <c r="DE110">
-        <v>8.856269897048719</v>
+        <v>0.1736523509225239</v>
       </c>
       <c r="DF110">
         <v>0.0</v>
@@ -62203,7 +62203,7 @@
         <v>0.0</v>
       </c>
       <c r="DF111">
-        <v>207.0552874491899</v>
+        <v>4.0599075970429395</v>
       </c>
       <c r="DG111">
         <v>0.0</v>
@@ -62760,7 +62760,7 @@
         <v>0.0</v>
       </c>
       <c r="DG112">
-        <v>0.30667579524444977</v>
+        <v>0.006013250887146073</v>
       </c>
       <c r="DH112">
         <v>0.0</v>
@@ -63317,7 +63317,7 @@
         <v>0.0</v>
       </c>
       <c r="DH113">
-        <v>473.9322503086025</v>
+        <v>9.292789221737303</v>
       </c>
       <c r="DI113">
         <v>0.0</v>
@@ -63874,7 +63874,7 @@
         <v>0.0</v>
       </c>
       <c r="DI114">
-        <v>617.0754257095087</v>
+        <v>12.099518151166837</v>
       </c>
       <c r="DJ114">
         <v>0.0</v>
@@ -64431,7 +64431,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ115">
-        <v>8.856269897048719</v>
+        <v>0.1736523509225239</v>
       </c>
       <c r="DK115">
         <v>0.0</v>
@@ -64988,7 +64988,7 @@
         <v>0.0</v>
       </c>
       <c r="DK116">
-        <v>207.0552874491899</v>
+        <v>4.0599075970429395</v>
       </c>
       <c r="DL116">
         <v>0.0</v>
@@ -65545,7 +65545,7 @@
         <v>0.0</v>
       </c>
       <c r="DL117">
-        <v>0.30667579524444977</v>
+        <v>0.006013250887146073</v>
       </c>
       <c r="DM117">
         <v>0.0</v>
@@ -66102,7 +66102,7 @@
         <v>0.0</v>
       </c>
       <c r="DM118">
-        <v>473.9322503086025</v>
+        <v>9.292789221737303</v>
       </c>
       <c r="DN118">
         <v>0.0</v>
@@ -66659,7 +66659,7 @@
         <v>0.0</v>
       </c>
       <c r="DN119">
-        <v>617.0754257095087</v>
+        <v>12.099518151166837</v>
       </c>
       <c r="DO119">
         <v>0.0</v>
@@ -67216,7 +67216,7 @@
         <v>0.0</v>
       </c>
       <c r="DO120">
-        <v>8.856269897048719</v>
+        <v>0.1736523509225239</v>
       </c>
       <c r="DP120">
         <v>0.0</v>
@@ -67773,7 +67773,7 @@
         <v>0.0</v>
       </c>
       <c r="DP121">
-        <v>207.0552874491899</v>
+        <v>4.0599075970429395</v>
       </c>
       <c r="DQ121">
         <v>0.0</v>
@@ -68330,7 +68330,7 @@
         <v>0.0</v>
       </c>
       <c r="DQ122">
-        <v>0.30667579524444977</v>
+        <v>0.006013250887146073</v>
       </c>
       <c r="DR122">
         <v>0.0</v>
@@ -68887,7 +68887,7 @@
         <v>0.0</v>
       </c>
       <c r="DR123">
-        <v>473.9322503086025</v>
+        <v>9.292789221737303</v>
       </c>
       <c r="DS123">
         <v>0.0</v>
@@ -69444,7 +69444,7 @@
         <v>0.0</v>
       </c>
       <c r="DS124">
-        <v>617.0754257095087</v>
+        <v>12.099518151166837</v>
       </c>
       <c r="DT124">
         <v>0.0</v>
@@ -70001,7 +70001,7 @@
         <v>0.0</v>
       </c>
       <c r="DT125">
-        <v>8.856269897048719</v>
+        <v>0.1736523509225239</v>
       </c>
       <c r="DU125">
         <v>0.0</v>
@@ -70558,7 +70558,7 @@
         <v>0.0</v>
       </c>
       <c r="DU126">
-        <v>207.0552874491899</v>
+        <v>4.0599075970429395</v>
       </c>
       <c r="DV126">
         <v>0.0</v>
@@ -71115,7 +71115,7 @@
         <v>0.0</v>
       </c>
       <c r="DV127">
-        <v>472.61289087340697</v>
+        <v>9.266919428890333</v>
       </c>
       <c r="DW127">
         <v>0.0</v>
@@ -71672,7 +71672,7 @@
         <v>0.0</v>
       </c>
       <c r="DW128">
-        <v>0.010000000367446487</v>
+        <v>0.01</v>
       </c>
       <c r="DX128">
         <v>0.0</v>
@@ -72229,7 +72229,7 @@
         <v>0.0</v>
       </c>
       <c r="DX129">
-        <v>1.009999001581369</v>
+        <v>0.01</v>
       </c>
       <c r="DY129">
         <v>0.0</v>
@@ -72786,7 +72786,7 @@
         <v>0.0</v>
       </c>
       <c r="DY130">
-        <v>0.010000739354722203</v>
+        <v>0.01</v>
       </c>
       <c r="DZ130">
         <v>0.0</v>
@@ -73343,7 +73343,7 @@
         <v>0.0</v>
       </c>
       <c r="DZ131">
-        <v>0.010000010611223032</v>
+        <v>0.01</v>
       </c>
       <c r="EA131">
         <v>0.0</v>
@@ -73900,7 +73900,7 @@
         <v>0.0</v>
       </c>
       <c r="EA132">
-        <v>0.010000248085239104</v>
+        <v>0.01</v>
       </c>
       <c r="EB132">
         <v>0.0</v>
@@ -74457,7 +74457,7 @@
         <v>0.0</v>
       </c>
       <c r="EB133">
-        <v>834.6130182861873</v>
+        <v>16.36496114286642</v>
       </c>
       <c r="EC133">
         <v>0.0</v>
@@ -75014,7 +75014,7 @@
         <v>0.0</v>
       </c>
       <c r="EC134">
-        <v>0.010367446487012913</v>
+        <v>0.01</v>
       </c>
       <c r="ED134">
         <v>0.0</v>
@@ -75571,7 +75571,7 @@
         <v>0.0</v>
       </c>
       <c r="ED135">
-        <v>0.011581369175646469</v>
+        <v>0.01</v>
       </c>
       <c r="EE135">
         <v>0.0</v>
@@ -76128,7 +76128,7 @@
         <v>0.0</v>
       </c>
       <c r="EE136">
-        <v>0.7493547222017355</v>
+        <v>0.01</v>
       </c>
       <c r="EF136">
         <v>0.0</v>
@@ -76685,7 +76685,7 @@
         <v>0.0</v>
       </c>
       <c r="EF137">
-        <v>0.02061122303152373</v>
+        <v>0.01</v>
       </c>
       <c r="EG137">
         <v>0.0</v>
@@ -77242,7 +77242,7 @@
         <v>0.0</v>
       </c>
       <c r="EG138">
-        <v>0.2580852391040814</v>
+        <v>0.01</v>
       </c>
       <c r="EH138">
         <v>0.0</v>
@@ -77799,7 +77799,7 @@
         <v>0.0</v>
       </c>
       <c r="EH139">
-        <v>0.30667562158450323</v>
+        <v>0.006013247482049083</v>
       </c>
       <c r="EI139">
         <v>0.0</v>
@@ -78356,7 +78356,7 @@
         <v>0.0</v>
       </c>
       <c r="EI140">
-        <v>1.3198313007110398</v>
+        <v>0.02587904511198117</v>
       </c>
       <c r="EJ140">
         <v>0.0</v>
@@ -78913,7 +78913,7 @@
         <v>0.0</v>
       </c>
       <c r="EJ141">
-        <v>617.0750762809361</v>
+        <v>12.099511299626197</v>
       </c>
       <c r="EK141">
         <v>0.0</v>
@@ -79470,7 +79470,7 @@
         <v>0.0</v>
       </c>
       <c r="EK142">
-        <v>8.856264882047928</v>
+        <v>0.17365225258917505</v>
       </c>
       <c r="EL142">
         <v>0.0</v>
@@ -80027,7 +80027,7 @@
         <v>0.0</v>
       </c>
       <c r="EL143">
-        <v>207.05517020090787</v>
+        <v>4.059905298057017</v>
       </c>
       <c r="EM143">
         <v>0.0</v>
@@ -80584,7 +80584,7 @@
         <v>0.0</v>
       </c>
       <c r="EM144">
-        <v>0.0003066756215845033</v>
+        <v>6.013247482049084e-6</v>
       </c>
       <c r="EN144">
         <v>0.0</v>
@@ -81141,7 +81141,7 @@
         <v>0.0</v>
       </c>
       <c r="EN145">
-        <v>0.0013198313007110397</v>
+        <v>2.587904511198117e-5</v>
       </c>
       <c r="EO145">
         <v>0.0</v>
@@ -81698,7 +81698,7 @@
         <v>0.0</v>
       </c>
       <c r="EO146">
-        <v>598.562823992508</v>
+        <v>11.736525960637412</v>
       </c>
       <c r="EP146">
         <v>0.0</v>
@@ -82255,7 +82255,7 @@
         <v>0.0</v>
       </c>
       <c r="EP147">
-        <v>0.008856264882047929</v>
+        <v>0.00017365225258917508</v>
       </c>
       <c r="EQ147">
         <v>0.0</v>
@@ -82812,7 +82812,7 @@
         <v>0.0</v>
       </c>
       <c r="EQ148">
-        <v>0.20705517020090786</v>
+        <v>0.0040599052980570165</v>
       </c>
       <c r="ER148">
         <v>0.0</v>
@@ -83369,7 +83369,7 @@
         <v>0.0</v>
       </c>
       <c r="ER149">
-        <v>0.30636894596291875</v>
+        <v>0.0060072342345670335</v>
       </c>
       <c r="ES149">
         <v>0.0</v>
@@ -83926,7 +83926,7 @@
         <v>0.0</v>
       </c>
       <c r="ES150">
-        <v>1.3185114694103288</v>
+        <v>0.02585316606686919</v>
       </c>
       <c r="ET150">
         <v>0.0</v>
@@ -84483,7 +84483,7 @@
         <v>0.0</v>
       </c>
       <c r="ET151">
-        <v>18.512252288428098</v>
+        <v>0.36298533898878627</v>
       </c>
       <c r="EU151">
         <v>0.0</v>
@@ -85040,7 +85040,7 @@
         <v>0.0</v>
       </c>
       <c r="EU152">
-        <v>8.84740861716588</v>
+        <v>0.17347860033658588</v>
       </c>
       <c r="EV152">
         <v>0.0</v>
@@ -85597,7 +85597,7 @@
         <v>0.0</v>
       </c>
       <c r="EV153">
-        <v>206.84811503070694</v>
+        <v>4.055845392758959</v>
       </c>
       <c r="EW153">
         <v>0.0</v>
@@ -86154,7 +86154,7 @@
         <v>0.0</v>
       </c>
       <c r="EW154">
-        <v>312.0</v>
+        <v>1.0</v>
       </c>
       <c r="EX154">
         <v>0.0</v>
@@ -86711,7 +86711,7 @@
         <v>0.0</v>
       </c>
       <c r="EX155">
-        <v>398.24612753336663</v>
+        <v>1.0</v>
       </c>
       <c r="EY155">
         <v>0.0</v>
@@ -87268,7 +87268,7 @@
         <v>0.0</v>
       </c>
       <c r="EY156">
-        <v>424.0</v>
+        <v>1.0</v>
       </c>
       <c r="EZ156">
         <v>0.0</v>
@@ -87825,7 +87825,7 @@
         <v>0.0</v>
       </c>
       <c r="EZ157">
-        <v>398.24612753336663</v>
+        <v>1.0</v>
       </c>
       <c r="FA157">
         <v>0.0</v>
@@ -88382,7 +88382,7 @@
         <v>0.0</v>
       </c>
       <c r="FA158">
-        <v>645.5953165006283</v>
+        <v>1.0</v>
       </c>
       <c r="FB158">
         <v>0.0</v>
@@ -88939,7 +88939,7 @@
         <v>0.0</v>
       </c>
       <c r="FB159">
-        <v>610.2000001706484</v>
+        <v>1.0</v>
       </c>
       <c r="FC159">
         <v>0.0</v>
@@ -89496,7 +89496,7 @@
         <v>0.0</v>
       </c>
       <c r="FC160">
-        <v>610.2000003471878</v>
+        <v>1.0</v>
       </c>
       <c r="FD160">
         <v>0.0</v>
@@ -90053,7 +90053,7 @@
         <v>0.0</v>
       </c>
       <c r="FD161">
-        <v>610.2000003471878</v>
+        <v>1.0</v>
       </c>
       <c r="FE161">
         <v>0.0</v>
@@ -90610,7 +90610,7 @@
         <v>0.0</v>
       </c>
       <c r="FE162">
-        <v>952.4824081015402</v>
+        <v>1.0</v>
       </c>
       <c r="FF162">
         <v>0.0</v>
@@ -91167,7 +91167,7 @@
         <v>0.0</v>
       </c>
       <c r="FF163">
-        <v>952.4824081015402</v>
+        <v>1.0</v>
       </c>
       <c r="FG163">
         <v>0.0</v>
@@ -91724,7 +91724,7 @@
         <v>0.0</v>
       </c>
       <c r="FG164">
-        <v>1292.817465833818</v>
+        <v>1.0</v>
       </c>
       <c r="FH164">
         <v>0.0</v>
@@ -92281,7 +92281,7 @@
         <v>0.0</v>
       </c>
       <c r="FH165">
-        <v>635.2000005057195</v>
+        <v>1.0</v>
       </c>
       <c r="FI165">
         <v>0.0</v>
@@ -92838,7 +92838,7 @@
         <v>0.0</v>
       </c>
       <c r="FI166">
-        <v>294.00000003068044</v>
+        <v>1.0</v>
       </c>
       <c r="FJ166">
         <v>0.0</v>
@@ -93395,7 +93395,7 @@
         <v>0.0</v>
       </c>
       <c r="FJ167">
-        <v>294.00000003068044</v>
+        <v>1.0</v>
       </c>
       <c r="FK167">
         <v>0.0</v>
@@ -93952,7 +93952,7 @@
         <v>0.0</v>
       </c>
       <c r="FK168">
-        <v>294.00000003068044</v>
+        <v>1.0</v>
       </c>
       <c r="FL168">
         <v>0.0</v>
@@ -94509,7 +94509,7 @@
         <v>0.0</v>
       </c>
       <c r="FL169">
-        <v>294.00000003068044</v>
+        <v>1.0</v>
       </c>
       <c r="FM169">
         <v>0.0</v>
@@ -95066,7 +95066,7 @@
         <v>0.0</v>
       </c>
       <c r="FM170">
-        <v>294.00000003068044</v>
+        <v>1.0</v>
       </c>
       <c r="FN170">
         <v>0.0</v>
@@ -95623,7 +95623,7 @@
         <v>0.0</v>
       </c>
       <c r="FN171">
-        <v>294.00000003068044</v>
+        <v>1.0</v>
       </c>
       <c r="FO171">
         <v>0.0</v>
@@ -96180,7 +96180,7 @@
         <v>0.0</v>
       </c>
       <c r="FO172">
-        <v>294.00000003068044</v>
+        <v>1.0</v>
       </c>
       <c r="FP172">
         <v>0.0</v>
@@ -96737,7 +96737,7 @@
         <v>0.0</v>
       </c>
       <c r="FP173">
-        <v>8.946650777973212e6</v>
+        <v>426030.9894272958</v>
       </c>
       <c r="FQ173">
         <v>0.0</v>
@@ -97294,7 +97294,7 @@
         <v>0.0</v>
       </c>
       <c r="FQ174">
-        <v>0.006767794794474414</v>
+        <v>0.0003222759425940197</v>
       </c>
       <c r="FR174">
         <v>0.0</v>
@@ -97851,7 +97851,7 @@
         <v>0.0</v>
       </c>
       <c r="FR175">
-        <v>3.2278948761406656e7</v>
+        <v>1.537092798162222e6</v>
       </c>
       <c r="FS175">
         <v>0.0</v>
@@ -98408,7 +98408,7 @@
         <v>0.0</v>
       </c>
       <c r="FS176">
-        <v>-3.2278948761406656e7</v>
+        <v>-1.537092798162222e6</v>
       </c>
       <c r="FT176">
         <v>0.0</v>
@@ -98965,7 +98965,7 @@
         <v>0.0</v>
       </c>
       <c r="FT177">
-        <v>-1.2086909774529876e7</v>
+        <v>-575567.1321204703</v>
       </c>
       <c r="FU177">
         <v>0.0</v>
@@ -99522,7 +99522,7 @@
         <v>0.0</v>
       </c>
       <c r="FU178">
-        <v>-8.0411416773318285e6</v>
+        <v>-382911.5084443728</v>
       </c>
       <c r="FV178">
         <v>0.0</v>
@@ -100079,7 +100079,7 @@
         <v>0.0</v>
       </c>
       <c r="FV179">
-        <v>731.158433706155</v>
+        <v>14.336439876591276</v>
       </c>
       <c r="FW179">
         <v>0.0</v>
@@ -100636,7 +100636,7 @@
         <v>0.0</v>
       </c>
       <c r="FW180">
-        <v>568.1391976765934</v>
+        <v>11.139984268168499</v>
       </c>
       <c r="FX180">
         <v>0.0</v>
@@ -101193,7 +101193,7 @@
         <v>0.0</v>
       </c>
       <c r="FX181">
-        <v>30.42362631591456</v>
+        <v>0.596541692468913</v>
       </c>
       <c r="FY181">
         <v>0.0</v>
@@ -101750,7 +101750,7 @@
         <v>0.0</v>
       </c>
       <c r="FY182">
-        <v>148.30799995986217</v>
+        <v>2.9079999992129837</v>
       </c>
       <c r="FZ182">
         <v>0.0</v>
@@ -102307,7 +102307,7 @@
         <v>0.0</v>
       </c>
       <c r="FZ183">
-        <v>4.013783305789194e-8</v>
+        <v>7.870163344684693e-10</v>
       </c>
       <c r="GA183">
         <v>0.0</v>
@@ -102864,7 +102864,7 @@
         <v>0.0</v>
       </c>
       <c r="GA184">
-        <v>1.4175260029306137e-7</v>
+        <v>2.7794627508443408e-9</v>
       </c>
       <c r="GB184">
         <v>0.0</v>
@@ -103421,7 +103421,7 @@
         <v>0.0</v>
       </c>
       <c r="GB185">
-        <v>235.83265649342678</v>
+        <v>4.624169735165231</v>
       </c>
     </row>
   </sheetData>
